--- a/toolkit.excel.test/bin/Debug/TestWorkbooks/UT1.xlsx
+++ b/toolkit.excel.test/bin/Debug/TestWorkbooks/UT1.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,46 +19,67 @@
 </workbook>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <d:author xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">Excel Importer</d:author>
+  </authors>
+  <commentList>
+    <comment ref="M17" authorId="0">
+      <text>
+        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">Conversion failed when converting the nvarchar value '1,5' to data type tinyint.</t>
+        </d:r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>StringTest</t>
   </si>
   <si>
+    <t>DecimalTest</t>
+  </si>
+  <si>
+    <t>IntTest</t>
+  </si>
+  <si>
+    <t>GuidTest</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
+    <t>291E645A-F0A6-4A50-A316-7A7A9931C8F2</t>
+  </si>
+  <si>
     <t>B</t>
   </si>
   <si>
+    <t>9BAB1466-A66A-4DB7-9AD4-DA1ED9531193</t>
+  </si>
+  <si>
+    <t>Ä</t>
+  </si>
+  <si>
+    <t>1,5</t>
+  </si>
+  <si>
+    <t>6B10C320-B126-43F3-904E-17571550AD16</t>
+  </si>
+  <si>
     <t>D</t>
   </si>
   <si>
-    <t>Ä</t>
-  </si>
-  <si>
-    <t>DecimalTest</t>
-  </si>
-  <si>
-    <t>IntTest</t>
-  </si>
-  <si>
-    <t>291E645A-F0A6-4A50-A316-7A7A9931C8F2</t>
-  </si>
-  <si>
-    <t>9BAB1466-A66A-4DB7-9AD4-DA1ED9531193</t>
-  </si>
-  <si>
-    <t>6B10C320-B126-43F3-904E-17571550AD16</t>
-  </si>
-  <si>
     <t>2F93BE1B-433F-41FE-9B3E-22452F18F20C</t>
-  </si>
-  <si>
-    <t>GuidTest</t>
-  </si>
-  <si>
-    <t>1,5</t>
   </si>
 </sst>
 </file>
@@ -67,7 +89,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,10 +119,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="11" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,517 +405,605 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="21.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="1" width="9" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="10.90625" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="6.54296875" customWidth="1"/>
+    <col min="4" max="4" bestFit="1" width="38.26953125" customWidth="1"/>
+    <col min="5" max="5" bestFit="1" width="15.08984375" customWidth="1"/>
+    <col min="6" max="6" bestFit="1" width="4.453125" customWidth="1"/>
+    <col min="7" max="7" bestFit="1" width="13.54296875" customWidth="1"/>
+    <col min="8" max="9" bestFit="1" width="21.36328125" customWidth="1"/>
+    <col min="10" max="10" bestFit="1" width="13.26953125" customWidth="1"/>
+    <col min="11" max="11" bestFit="1" width="11.26953125" customWidth="1"/>
+    <col min="12" max="12" bestFit="1" width="18.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="0">
+        <v>1.5</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1.5</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="0">
         <v>1.5</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
+      <c r="D3" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>4</v>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
+      <c r="D4" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="0">
         <v>3.5</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
-        <v>10</v>
+      <c r="D5" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6">
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7">
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8">
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9">
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10">
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11">
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12">
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13">
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14">
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15">
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16">
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="17">
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="18">
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="19">
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="20">
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="21">
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="22">
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="23">
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="24">
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="25">
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="26">
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="27">
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="28">
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="29">
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="30">
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="31">
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="32">
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="33">
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="34">
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="35">
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="36">
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="37">
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="38">
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="39">
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="40">
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="41">
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="42">
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="43">
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="44">
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="45">
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="46">
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="47">
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="48">
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="49">
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="50">
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="51">
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="52">
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="53">
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="54">
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="55">
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="56">
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="57">
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="58">
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="59">
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="60">
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="61">
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="62">
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="63">
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="64">
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="65">
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="66">
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="67">
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="68">
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="69">
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="70">
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="71">
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="72">
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="73">
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="74">
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="75">
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="76">
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="77">
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="78">
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="79">
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="80">
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="81">
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="82">
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="83">
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="84">
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="85">
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="86">
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="87">
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="88">
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="89">
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="90">
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="91">
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="92">
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="93">
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="94">
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="95">
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="96">
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="97">
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
     </row>
-    <row r="98" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="98">
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="99">
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="100">
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="101">
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
     </row>
-    <row r="102" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="102">
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="103">
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="104">
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="105">
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
     </row>
-    <row r="106" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="106">
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="107">
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
     </row>
-    <row r="108" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="108">
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="M14:P18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="14">
+      <c r="M14" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="O14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="M15" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="0">
+        <v>0</v>
+      </c>
+      <c r="O15" s="0">
+        <v>1</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="M16" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="N16" s="0">
+        <v>0</v>
+      </c>
+      <c r="O16" s="0">
+        <v>4</v>
+      </c>
+      <c r="P16" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="M17" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O17" s="0">
+        <v>50000</v>
+      </c>
+      <c r="P17" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="M18" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="N18" s="0">
+        <v>0</v>
+      </c>
+      <c r="O18" s="0">
+        <v>7</v>
+      </c>
+      <c r="P18" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/toolkit.excel.test/bin/Debug/TestWorkbooks/UT1.xlsx
+++ b/toolkit.excel.test/bin/Debug/TestWorkbooks/UT1.xlsx
@@ -32,7 +32,8 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">Conversion failed when converting the nvarchar value '1,5' to data type tinyint.</t>
+          <t xml:space="preserve">The conversion of the nvarchar value '50000' overflowed an INT1 column. Use a larger integer column.
+The statement has been terminated.</t>
         </d:r>
       </text>
     </comment>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>StringTest</t>
   </si>
@@ -70,16 +71,19 @@
     <t>Ä</t>
   </si>
   <si>
+    <t>50000</t>
+  </si>
+  <si>
+    <t>6B10C320-B126-43F3-904E-17571550AD16</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>2F93BE1B-433F-41FE-9B3E-22452F18F20C</t>
+  </si>
+  <si>
     <t>1,5</t>
-  </si>
-  <si>
-    <t>6B10C320-B126-43F3-904E-17571550AD16</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>2F93BE1B-433F-41FE-9B3E-22452F18F20C</t>
   </si>
 </sst>
 </file>
@@ -475,7 +479,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C4" s="0">
         <v>5</v>
@@ -926,7 +930,7 @@
   <dimension ref="M14:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
